--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="419">
   <si>
     <t>Versión</t>
   </si>
@@ -1270,6 +1270,9 @@
   </si>
   <si>
     <t>Agregar mitigaciones y contingencias en la 3° hoja</t>
+  </si>
+  <si>
+    <t>Rentar instalaciones temporales</t>
   </si>
 </sst>
 </file>
@@ -1681,6 +1684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1714,10 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2184,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2197,40 +2200,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
@@ -2286,10 +2289,10 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="59"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -2315,10 +2318,10 @@
       <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="59"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
@@ -2344,14 +2347,14 @@
       <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="58"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>0</v>
       </c>
@@ -2442,8 +2445,8 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -2451,8 +2454,8 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -2460,8 +2463,8 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -2469,8 +2472,8 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -2478,8 +2481,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -2487,19 +2490,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4187,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4220,11 +4223,11 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -4256,11 +4259,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -4798,8 +4801,8 @@
       <c r="B55" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="65" t="s">
-        <v>261</v>
+      <c r="C55" s="66" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4809,7 +4812,7 @@
       <c r="B56" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="54" t="s">
         <v>413</v>
       </c>
     </row>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
@@ -1279,7 +1279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1371,6 +1371,11 @@
       <color rgb="FF0070C0"/>
       <name val="Imprint MT Shadow"/>
       <family val="5"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1539,7 +1544,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1687,12 +1692,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,7 +1720,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,23 +1763,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1478915</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2066924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1695450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen" descr="https://scontent-dfw1-1.xx.fbcdn.net/hphotos-xta1/v/t34.0-12/11311714_10206565254239290_1568679794_n.jpg?oh=b8ed85d2fbcfe6a14d00aa24bdd64430&amp;oe=5563A22A"/>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="F:\logo.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1773,15 +1787,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="209550" y="123825"/>
-          <a:ext cx="1269365" cy="783590"/>
+          <a:off x="123824" y="723900"/>
+          <a:ext cx="3705225" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1790,6 +1802,11 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1802,22 +1819,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1550276</xdr:colOff>
+      <xdr:colOff>1064172</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13140</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:colOff>3258206</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>65689</xdr:rowOff>
+      <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen" descr="https://scontent-dfw1-1.xx.fbcdn.net/hphotos-xta1/v/t34.0-12/11311714_10206565254239290_1568679794_n.jpg?oh=b8ed85d2fbcfe6a14d00aa24bdd64430&amp;oe=5563A22A"/>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="F:\logo.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1825,15 +1842,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4112173" y="13140"/>
-          <a:ext cx="1497724" cy="873670"/>
+          <a:off x="3626069" y="0"/>
+          <a:ext cx="2194034" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,6 +1857,11 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1853,25 +1873,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>79383</xdr:rowOff>
+      <xdr:rowOff>147204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>26777</xdr:colOff>
+      <xdr:colOff>2251363</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1198569</xdr:rowOff>
+      <xdr:rowOff>1151659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="F:\logo.jpg"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1879,18 +1897,26 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="833438" y="396883"/>
-          <a:ext cx="1812714" cy="1119186"/>
+          <a:off x="2649682" y="476249"/>
+          <a:ext cx="2225386" cy="1004455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2185,236 +2211,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+    </row>
+    <row r="5" spans="3:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="D11" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="29">
+      <c r="D12" s="29">
         <v>42173</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="D13" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="30"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="59"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="D18" s="32" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="29">
+      <c r="D19" s="29">
         <v>42173</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="33"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="59"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="D23" s="32" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B24" s="34">
+      <c r="D24" s="34">
         <v>42174</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="33"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
       <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="E28" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+    <row r="29" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="33">
         <v>1</v>
       </c>
-      <c r="B29" s="29">
+      <c r="D29" s="29">
         <v>42173</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="E29" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="F29" s="28" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B30" s="29">
+      <c r="D30" s="29">
         <v>42184</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="E30" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="F30" s="28" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="30"/>
       <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="6">
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2428,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2444,65 +2475,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4176,7 +4207,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B1:C6"/>
+    <mergeCell ref="A1:C6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4190,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4223,11 +4254,11 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -4259,11 +4290,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -4801,7 +4832,7 @@
       <c r="B55" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="55" t="s">
         <v>418</v>
       </c>
     </row>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="10380" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
-    <sheet name="Riesgos" sheetId="2" r:id="rId2"/>
-    <sheet name="Medidas_Mitigacion_Contingencia" sheetId="3" r:id="rId3"/>
+    <sheet name="Control de cambios" sheetId="4" r:id="rId2"/>
+    <sheet name="Riesgos" sheetId="2" r:id="rId3"/>
+    <sheet name="Medidas_Mitigacion_Contingencia" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="422">
   <si>
     <t>Versión</t>
   </si>
@@ -1273,6 +1274,15 @@
   </si>
   <si>
     <t>Rentar instalaciones temporales</t>
+  </si>
+  <si>
+    <t>TMv3/Administracion-de-Proyectos/ Planeacion-del-proyecto/ Administracion-de-riesgos/TMv3-BD de Riesgos.xlsx</t>
+  </si>
+  <si>
+    <t>Control de cambios</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1554,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1693,6 +1703,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1705,6 +1724,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,20 +1745,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2213,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2226,40 +2257,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="3:7" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="3:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="3:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="24"/>
@@ -2296,11 +2327,13 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="27" t="s">
+    <row r="14" spans="3:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="15" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
@@ -2315,10 +2348,10 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="31" t="s">
@@ -2344,10 +2377,10 @@
       <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="31" t="s">
@@ -2373,12 +2406,12 @@
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="31" t="s">
@@ -2423,16 +2456,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="33"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="30"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2440,12 +2473,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2456,6 +2489,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="75">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29">
+        <v>42173</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="29">
+        <v>42184</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G186"/>
   <sheetViews>
@@ -2475,65 +2640,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -4217,11 +4382,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -4254,11 +4419,11 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -4290,11 +4455,11 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="1"/>
       <c r="E7"/>
       <c r="F7"/>
